--- a/stock_data_20240604.xlsx
+++ b/stock_data_20240604.xlsx
@@ -5497,10 +5497,10 @@
         <v>99.19999694824219</v>
       </c>
       <c r="E252" t="n">
-        <v>100.6999969482422</v>
+        <v>101</v>
       </c>
       <c r="F252" t="n">
-        <v>36450279</v>
+        <v>36663537</v>
       </c>
     </row>
   </sheetData>
@@ -10568,10 +10568,10 @@
         <v>228.3999938964844</v>
       </c>
       <c r="E252" t="n">
-        <v>230.5</v>
+        <v>231</v>
       </c>
       <c r="F252" t="n">
-        <v>18462565</v>
+        <v>18485481</v>
       </c>
     </row>
   </sheetData>
@@ -15639,10 +15639,10 @@
         <v>59.29999923706055</v>
       </c>
       <c r="E252" t="n">
-        <v>59.59999847412109</v>
+        <v>59.65000152587891</v>
       </c>
       <c r="F252" t="n">
-        <v>22516022</v>
+        <v>22527505</v>
       </c>
     </row>
   </sheetData>
@@ -15722,13 +15722,13 @@
         <v>99.19999694824219</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>100.6999969482422</v>
+        <v>101</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>36450279</v>
+        <v>36663537</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>-1.900001525878906</v>
+        <v>-1.599998474121094</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -15752,13 +15752,13 @@
         <v>228.3999938964844</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>230.5</v>
+        <v>231</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>18462565</v>
+        <v>18485481</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>-1.699996948242188</v>
+        <v>-1.199996948242188</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -15782,13 +15782,13 @@
         <v>59.29999923706055</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>59.59999847412109</v>
+        <v>59.65000152587891</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>22516022</v>
+        <v>22527505</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>-0.8000030517578125</v>
+        <v>-0.75</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>

--- a/stock_data_20240604.xlsx
+++ b/stock_data_20240604.xlsx
@@ -5519,10 +5519,10 @@
         <v>59.29999923706055</v>
       </c>
       <c r="E252" t="n">
-        <v>59.59999847412109</v>
+        <v>59.54999923706055</v>
       </c>
       <c r="F252" t="n">
-        <v>22839670</v>
+        <v>23110770</v>
       </c>
     </row>
   </sheetData>
@@ -9833,7 +9833,7 @@
         <v>13.30000019073486</v>
       </c>
       <c r="F214" t="n">
-        <v>3593903</v>
+        <v>3631678</v>
       </c>
     </row>
   </sheetData>
@@ -14901,10 +14901,10 @@
         <v>21</v>
       </c>
       <c r="E252" t="n">
-        <v>21.21999931335449</v>
+        <v>21.18000030517578</v>
       </c>
       <c r="F252" t="n">
-        <v>1394656</v>
+        <v>1421696</v>
       </c>
     </row>
   </sheetData>
@@ -19972,10 +19972,10 @@
         <v>14.6899995803833</v>
       </c>
       <c r="E252" t="n">
-        <v>14.76000022888184</v>
+        <v>14.72999954223633</v>
       </c>
       <c r="F252" t="n">
-        <v>23914652</v>
+        <v>24331195</v>
       </c>
     </row>
   </sheetData>
@@ -25043,10 +25043,10 @@
         <v>14.22000026702881</v>
       </c>
       <c r="E252" t="n">
-        <v>14.90999984741211</v>
+        <v>14.89999961853027</v>
       </c>
       <c r="F252" t="n">
-        <v>3055897</v>
+        <v>3063531</v>
       </c>
     </row>
   </sheetData>
@@ -30108,16 +30108,16 @@
         <v>53.84999847412109</v>
       </c>
       <c r="C252" t="n">
-        <v>55.59999847412109</v>
+        <v>55.75</v>
       </c>
       <c r="D252" t="n">
         <v>53.84999847412109</v>
       </c>
       <c r="E252" t="n">
-        <v>55.59999847412109</v>
+        <v>55.75</v>
       </c>
       <c r="F252" t="n">
-        <v>194941</v>
+        <v>201647</v>
       </c>
     </row>
   </sheetData>
@@ -35185,10 +35185,10 @@
         <v>97.34999847412109</v>
       </c>
       <c r="E252" t="n">
-        <v>98.65000152587891</v>
+        <v>98.59999847412109</v>
       </c>
       <c r="F252" t="n">
-        <v>20281555</v>
+        <v>20769080</v>
       </c>
     </row>
   </sheetData>
@@ -40256,10 +40256,10 @@
         <v>286.25</v>
       </c>
       <c r="E252" t="n">
-        <v>288.75</v>
+        <v>289</v>
       </c>
       <c r="F252" t="n">
-        <v>267296</v>
+        <v>269275</v>
       </c>
     </row>
   </sheetData>
@@ -45330,7 +45330,7 @@
         <v>60.65000152587891</v>
       </c>
       <c r="F252" t="n">
-        <v>5517346</v>
+        <v>5558113</v>
       </c>
     </row>
   </sheetData>
@@ -50398,10 +50398,10 @@
         <v>22.78000068664551</v>
       </c>
       <c r="E252" t="n">
-        <v>23.21999931335449</v>
+        <v>23.31999969482422</v>
       </c>
       <c r="F252" t="n">
-        <v>23129266</v>
+        <v>23997462</v>
       </c>
     </row>
   </sheetData>
@@ -50481,13 +50481,13 @@
         <v>59.29999923706055</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>59.59999847412109</v>
+        <v>59.54999923706055</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>22839670</v>
+        <v>23110770</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>-0.8000030517578125</v>
+        <v>-0.8500022888183594</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -50508,16 +50508,16 @@
         <v>18.42000007629395</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>17.45000076293945</v>
+        <v>17.3700008392334</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>17.53000068664551</v>
+        <v>17.3799991607666</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>46581064</v>
+        <v>47874551</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>-0.75</v>
+        <v>-0.9000015258789062</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -50541,13 +50541,13 @@
         <v>38.5</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39.86000061035156</v>
+        <v>39.65999984741211</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1283865</v>
+        <v>1309251</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>1.360000610351562</v>
+        <v>1.159999847412109</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -50571,13 +50571,13 @@
         <v>72.15000152587891</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>72.80000305175781</v>
+        <v>72.75</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2237385</v>
+        <v>2256718</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>-0.09999847412109375</v>
+        <v>-0.1500015258789062</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -50601,13 +50601,13 @@
         <v>97.80000305175781</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>98.59999847412109</v>
+        <v>98.55000305175781</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11931353</v>
+        <v>11998554</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09999847412109375</v>
+        <v>0.0500030517578125</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -50634,7 +50634,7 @@
         <v>114.9000015258789</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>1365273</v>
+        <v>1380289</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>-1.5</v>
@@ -50664,7 +50664,7 @@
         <v>439.25</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>304392</v>
+        <v>306149</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>-2.5</v>
@@ -50691,13 +50691,13 @@
         <v>224.6999969482422</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>227.1000061035156</v>
+        <v>226.8000030517578</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>616867</v>
+        <v>620305</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>-1.199996948242188</v>
+        <v>-1.5</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
@@ -50721,13 +50721,13 @@
         <v>168.5</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>171</v>
+        <v>171.1999969482422</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>394381</v>
+        <v>396377</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>1</v>
+        <v>1.199996948242188</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -50754,7 +50754,7 @@
         <v>13.30000019073486</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>3593903</v>
+        <v>3631678</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>-0.2100000381469727</v>
@@ -50781,13 +50781,13 @@
         <v>21</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21.21999931335449</v>
+        <v>21.18000030517578</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1394656</v>
+        <v>1421696</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3199996948242188</v>
+        <v>0.2800006866455078</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -50811,13 +50811,13 @@
         <v>14.6899995803833</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>14.76000022888184</v>
+        <v>14.72999954223633</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>23914652</v>
+        <v>24331195</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>-0.09999942779541016</v>
+        <v>-0.130000114440918</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -50841,13 +50841,13 @@
         <v>14.22000026702881</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14.90999984741211</v>
+        <v>14.89999961853027</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3055897</v>
+        <v>3063531</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.5999994277954102</v>
+        <v>0.5899991989135742</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -50865,19 +50865,19 @@
         <v>53.84999847412109</v>
       </c>
       <c r="C15" s="5" t="n">
-        <v>55.59999847412109</v>
+        <v>55.75</v>
       </c>
       <c r="D15" s="5" t="n">
         <v>53.84999847412109</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>55.59999847412109</v>
+        <v>55.75</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>194941</v>
+        <v>201647</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>1.899997711181641</v>
+        <v>2.049999237060547</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -50901,13 +50901,13 @@
         <v>97.34999847412109</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>98.65000152587891</v>
+        <v>98.59999847412109</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>20281555</v>
+        <v>20769080</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>-1.949996948242188</v>
+        <v>-2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -50931,13 +50931,13 @@
         <v>286.25</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>288.75</v>
+        <v>289</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>267296</v>
+        <v>269275</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -50964,7 +50964,7 @@
         <v>60.65000152587891</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5517346</v>
+        <v>5558113</v>
       </c>
       <c r="G18" s="5" t="n">
         <v>0.5500030517578125</v>
@@ -50991,13 +50991,13 @@
         <v>22.78000068664551</v>
       </c>
       <c r="E19" s="4" t="n">
-        <v>23.21999931335449</v>
+        <v>23.31999969482422</v>
       </c>
       <c r="F19" s="4" t="n">
-        <v>23129266</v>
+        <v>23997462</v>
       </c>
       <c r="G19" s="4" t="n">
-        <v>-0.4200000762939453</v>
+        <v>-0.3199996948242188</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -53647,13 +53647,13 @@
         <v>18.42000007629395</v>
       </c>
       <c r="D131" t="n">
-        <v>17.45000076293945</v>
+        <v>17.3700008392334</v>
       </c>
       <c r="E131" t="n">
-        <v>17.53000068664551</v>
+        <v>17.3799991607666</v>
       </c>
       <c r="F131" t="n">
-        <v>46581064</v>
+        <v>47874551</v>
       </c>
     </row>
   </sheetData>
@@ -58741,10 +58741,10 @@
         <v>38.5</v>
       </c>
       <c r="E253" t="n">
-        <v>39.86000061035156</v>
+        <v>39.65999984741211</v>
       </c>
       <c r="F253" t="n">
-        <v>1283865</v>
+        <v>1309251</v>
       </c>
     </row>
   </sheetData>
@@ -63812,10 +63812,10 @@
         <v>72.15000152587891</v>
       </c>
       <c r="E252" t="n">
-        <v>72.80000305175781</v>
+        <v>72.75</v>
       </c>
       <c r="F252" t="n">
-        <v>2237385</v>
+        <v>2256718</v>
       </c>
     </row>
   </sheetData>
@@ -68883,10 +68883,10 @@
         <v>97.80000305175781</v>
       </c>
       <c r="E252" t="n">
-        <v>98.59999847412109</v>
+        <v>98.55000305175781</v>
       </c>
       <c r="F252" t="n">
-        <v>11931353</v>
+        <v>11998554</v>
       </c>
     </row>
   </sheetData>
@@ -73837,7 +73837,7 @@
         <v>114.9000015258789</v>
       </c>
       <c r="F246" t="n">
-        <v>1365273</v>
+        <v>1380289</v>
       </c>
     </row>
   </sheetData>
@@ -78928,7 +78928,7 @@
         <v>439.25</v>
       </c>
       <c r="F253" t="n">
-        <v>304392</v>
+        <v>306149</v>
       </c>
     </row>
   </sheetData>
@@ -83876,10 +83876,10 @@
         <v>224.6999969482422</v>
       </c>
       <c r="E246" t="n">
-        <v>227.1000061035156</v>
+        <v>226.8000030517578</v>
       </c>
       <c r="F246" t="n">
-        <v>616867</v>
+        <v>620305</v>
       </c>
     </row>
   </sheetData>
@@ -87787,10 +87787,10 @@
         <v>168.5</v>
       </c>
       <c r="E194" t="n">
-        <v>171</v>
+        <v>171.1999969482422</v>
       </c>
       <c r="F194" t="n">
-        <v>394381</v>
+        <v>396377</v>
       </c>
     </row>
   </sheetData>

--- a/stock_data_20240604.xlsx
+++ b/stock_data_20240604.xlsx
@@ -5520,10 +5520,10 @@
         <v>59.29999923706055</v>
       </c>
       <c r="E252" t="n">
-        <v>59.54999923706055</v>
+        <v>59.5</v>
       </c>
       <c r="F252" t="n">
-        <v>23425287</v>
+        <v>23696453</v>
       </c>
     </row>
   </sheetData>
@@ -9831,10 +9831,10 @@
         <v>13.15999984741211</v>
       </c>
       <c r="E214" t="n">
-        <v>13.27000045776367</v>
+        <v>13.22999954223633</v>
       </c>
       <c r="F214" t="n">
-        <v>3656104</v>
+        <v>3726635</v>
       </c>
     </row>
   </sheetData>
@@ -14905,7 +14905,7 @@
         <v>21.18000030517578</v>
       </c>
       <c r="F252" t="n">
-        <v>1439432</v>
+        <v>1495553</v>
       </c>
     </row>
   </sheetData>
@@ -19976,7 +19976,7 @@
         <v>14.71000003814697</v>
       </c>
       <c r="F252" t="n">
-        <v>24479953</v>
+        <v>24746216</v>
       </c>
     </row>
   </sheetData>
@@ -23984,10 +23984,10 @@
         <v>23.71999931335449</v>
       </c>
       <c r="E199" t="n">
-        <v>24.04000091552734</v>
+        <v>24.05999946594238</v>
       </c>
       <c r="F199" t="n">
-        <v>2708683</v>
+        <v>2732763</v>
       </c>
     </row>
   </sheetData>
@@ -29055,10 +29055,10 @@
         <v>14.22000026702881</v>
       </c>
       <c r="E252" t="n">
-        <v>14.82999992370605</v>
+        <v>14.88000011444092</v>
       </c>
       <c r="F252" t="n">
-        <v>3080828</v>
+        <v>3094822</v>
       </c>
     </row>
   </sheetData>
@@ -34126,10 +34126,10 @@
         <v>53.84999847412109</v>
       </c>
       <c r="E252" t="n">
-        <v>55.59999847412109</v>
+        <v>55.54999923706055</v>
       </c>
       <c r="F252" t="n">
-        <v>203685</v>
+        <v>204264</v>
       </c>
     </row>
   </sheetData>
@@ -39197,10 +39197,10 @@
         <v>97.34999847412109</v>
       </c>
       <c r="E252" t="n">
-        <v>98.5</v>
+        <v>98.40000152587891</v>
       </c>
       <c r="F252" t="n">
-        <v>21009398</v>
+        <v>21346724</v>
       </c>
     </row>
   </sheetData>
@@ -44268,10 +44268,10 @@
         <v>286.25</v>
       </c>
       <c r="E252" t="n">
-        <v>288.5</v>
+        <v>288.25</v>
       </c>
       <c r="F252" t="n">
-        <v>273259</v>
+        <v>276893</v>
       </c>
     </row>
   </sheetData>
@@ -49339,10 +49339,10 @@
         <v>60</v>
       </c>
       <c r="E252" t="n">
-        <v>60.65000152587891</v>
+        <v>60.59999847412109</v>
       </c>
       <c r="F252" t="n">
-        <v>5587819</v>
+        <v>5648394</v>
       </c>
     </row>
   </sheetData>
@@ -54410,10 +54410,10 @@
         <v>22.78000068664551</v>
       </c>
       <c r="E252" t="n">
-        <v>23.05999946594238</v>
+        <v>23.04000091552734</v>
       </c>
       <c r="F252" t="n">
-        <v>26485029</v>
+        <v>27494208</v>
       </c>
     </row>
   </sheetData>
@@ -57058,13 +57058,13 @@
         <v>18.42000007629395</v>
       </c>
       <c r="D131" t="n">
-        <v>17.29000091552734</v>
+        <v>17.1299991607666</v>
       </c>
       <c r="E131" t="n">
-        <v>17.31999969482422</v>
+        <v>17.25</v>
       </c>
       <c r="F131" t="n">
-        <v>49228960</v>
+        <v>51949527</v>
       </c>
     </row>
   </sheetData>
@@ -57109,7 +57109,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Close</t>
+          <t>Current</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -57149,16 +57149,16 @@
         <v>59.29999923706055</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>59.54999923706055</v>
+        <v>59.5</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23425287</v>
+        <v>23696453</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>-0.8500022888183594</v>
+        <v>-0.9000015258789062</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.407288522094106</v>
+        <v>1.490068713811695</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -57173,25 +57173,25 @@
         </is>
       </c>
       <c r="B3" s="4" t="n">
-        <v>18.39999961853027</v>
+        <v>18.28000068664551</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>18.42000007629395</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>17.29000091552734</v>
+        <v>17.1299991607666</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>17.31999969482422</v>
+        <v>17.25</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>49228960</v>
+        <v>51949527</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>-0.9600009918212891</v>
+        <v>-1.030000686645508</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.251646366307966</v>
+        <v>5.634576848774287</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -57206,7 +57206,7 @@
         </is>
       </c>
       <c r="B4" s="5" t="n">
-        <v>38.59999847412109</v>
+        <v>38.5</v>
       </c>
       <c r="C4" s="5" t="n">
         <v>40.5</v>
@@ -57218,7 +57218,7 @@
         <v>39.70000076293945</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1311051</v>
+        <v>1322763</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>1.200000762939453</v>
@@ -57239,7 +57239,7 @@
         </is>
       </c>
       <c r="B5" s="4" t="n">
-        <v>72.65000152587891</v>
+        <v>72.90000152587891</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>73.5</v>
@@ -57251,7 +57251,7 @@
         <v>72.75</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2275126</v>
+        <v>2285831</v>
       </c>
       <c r="G5" s="4" t="n">
         <v>-0.1500015258789062</v>
@@ -57272,7 +57272,7 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>98.30000305175781</v>
+        <v>98.5</v>
       </c>
       <c r="C6" s="5" t="n">
         <v>99.30000305175781</v>
@@ -57281,16 +57281,16 @@
         <v>97.80000305175781</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>98.59999847412109</v>
+        <v>98.55000305175781</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12035715</v>
+        <v>12090211</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09999847412109375</v>
+        <v>0.0500030517578125</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.1015212935239589</v>
+        <v>-0.05076451955108041</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -57305,7 +57305,7 @@
         </is>
       </c>
       <c r="B7" s="4" t="n">
-        <v>116.6999969482422</v>
+        <v>116.4000015258789</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>116.9000015258789</v>
@@ -57317,7 +57317,7 @@
         <v>114.9000015258789</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>1398963</v>
+        <v>1408592</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>-1.5</v>
@@ -57347,16 +57347,16 @@
         <v>432</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>438.75</v>
+        <v>438.5</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>307890</v>
+        <v>310573</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>-3</v>
+        <v>-3.25</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>0.6791171477079843</v>
+        <v>0.7357102433503115</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -57371,7 +57371,7 @@
         </is>
       </c>
       <c r="B9" s="4" t="n">
-        <v>228</v>
+        <v>228.3000030517578</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>229.6000061035156</v>
@@ -57383,7 +57383,7 @@
         <v>226.6000061035156</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>631174</v>
+        <v>635793</v>
       </c>
       <c r="G9" s="4" t="n">
         <v>-1.699996948242188</v>
@@ -57413,16 +57413,16 @@
         <v>168.5</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>171.5</v>
+        <v>171</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>397737</v>
+        <v>401159</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.8823529411764639</v>
+        <v>-0.5882352941176521</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -57446,16 +57446,16 @@
         <v>13.15999984741211</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>13.27000045776367</v>
+        <v>13.22999954223633</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>3656104</v>
+        <v>3726635</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>-0.2399997711181641</v>
+        <v>-0.2800006866455078</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>1.77646015582657</v>
+        <v>2.072543907489504</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -57470,7 +57470,7 @@
         </is>
       </c>
       <c r="B12" s="5" t="n">
-        <v>21</v>
+        <v>20.89999961853027</v>
       </c>
       <c r="C12" s="5" t="n">
         <v>21.3799991607666</v>
@@ -57482,7 +57482,7 @@
         <v>21.18000030517578</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1439432</v>
+        <v>1495553</v>
       </c>
       <c r="G12" s="5" t="n">
         <v>0.2800006866455078</v>
@@ -57503,7 +57503,7 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>14.89999961853027</v>
+        <v>14.85999965667725</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>15.02999973297119</v>
@@ -57515,7 +57515,7 @@
         <v>14.71000003814697</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>24479953</v>
+        <v>24746216</v>
       </c>
       <c r="G13" s="4" t="n">
         <v>-0.1499996185302734</v>
@@ -57545,16 +57545,16 @@
         <v>23.71999931335449</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24.04000091552734</v>
+        <v>24.05999946594238</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2708683</v>
+        <v>2732763</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3200016021728516</v>
+        <v>0.3400001525878906</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>-1.349079306223629</v>
+        <v>-1.433390229469651</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -57569,7 +57569,7 @@
         </is>
       </c>
       <c r="B15" s="5" t="n">
-        <v>14.42000007629395</v>
+        <v>14.3100004196167</v>
       </c>
       <c r="C15" s="5" t="n">
         <v>15.19999980926514</v>
@@ -57578,16 +57578,16 @@
         <v>14.22000026702881</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.82999992370605</v>
+        <v>14.88000011444092</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3080828</v>
+        <v>3094822</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5199995040893555</v>
+        <v>0.5699996948242188</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>-3.633818929708212</v>
+        <v>-3.983226262123949</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -57602,7 +57602,7 @@
         </is>
       </c>
       <c r="B16" s="5" t="n">
-        <v>53.84999847412109</v>
+        <v>53.70000076293945</v>
       </c>
       <c r="C16" s="5" t="n">
         <v>55.75</v>
@@ -57611,16 +57611,16 @@
         <v>53.84999847412109</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>55.59999847412109</v>
+        <v>55.54999923706055</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>203685</v>
+        <v>204264</v>
       </c>
       <c r="G16" s="5" t="n">
-        <v>1.899997711181641</v>
+        <v>1.849998474121094</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-3.538170734055015</v>
+        <v>-3.445062286475519</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -57635,7 +57635,7 @@
         </is>
       </c>
       <c r="B17" s="4" t="n">
-        <v>100.8000030517578</v>
+        <v>100.5999984741211</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>101.8000030517578</v>
@@ -57644,16 +57644,16 @@
         <v>97.34999847412109</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>98.5</v>
+        <v>98.40000152587891</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>21009398</v>
+        <v>21346724</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>-2.099998474121094</v>
+        <v>-2.199996948242188</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>2.087473663989471</v>
+        <v>2.186875727247781</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -57668,7 +57668,7 @@
         </is>
       </c>
       <c r="B18" s="5" t="n">
-        <v>288</v>
+        <v>287.75</v>
       </c>
       <c r="C18" s="5" t="n">
         <v>298</v>
@@ -57677,16 +57677,16 @@
         <v>286.25</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>288.5</v>
+        <v>288.25</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>273259</v>
+        <v>276893</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.2606429192006914</v>
+        <v>-0.1737619461337943</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -57701,7 +57701,7 @@
         </is>
       </c>
       <c r="B19" s="5" t="n">
-        <v>60.90000152587891</v>
+        <v>60.09999847412109</v>
       </c>
       <c r="C19" s="5" t="n">
         <v>61.29999923706055</v>
@@ -57710,16 +57710,16 @@
         <v>60</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>60.65000152587891</v>
+        <v>60.59999847412109</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5587819</v>
+        <v>5648394</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.5500030517578125</v>
+        <v>0.5</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>-0.9151465319830976</v>
+        <v>-0.8319467765299464</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -57734,7 +57734,7 @@
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>23.70000076293945</v>
+        <v>23.63999938964844</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>23.95999908447266</v>
@@ -57743,16 +57743,16 @@
         <v>22.78000068664551</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>23.05999946594238</v>
+        <v>23.04000091552734</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>26485029</v>
+        <v>27494208</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>-0.5799999237060547</v>
+        <v>-0.5999984741210938</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>2.453468437736205</v>
+        <v>2.538064676870604</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -62848,7 +62848,7 @@
         <v>39.70000076293945</v>
       </c>
       <c r="F253" t="n">
-        <v>1311051</v>
+        <v>1322763</v>
       </c>
     </row>
   </sheetData>
@@ -67919,7 +67919,7 @@
         <v>72.75</v>
       </c>
       <c r="F252" t="n">
-        <v>2275126</v>
+        <v>2285831</v>
       </c>
     </row>
   </sheetData>
@@ -72987,10 +72987,10 @@
         <v>97.80000305175781</v>
       </c>
       <c r="E252" t="n">
-        <v>98.59999847412109</v>
+        <v>98.55000305175781</v>
       </c>
       <c r="F252" t="n">
-        <v>12035715</v>
+        <v>12090211</v>
       </c>
     </row>
   </sheetData>
@@ -77941,7 +77941,7 @@
         <v>114.9000015258789</v>
       </c>
       <c r="F246" t="n">
-        <v>1398963</v>
+        <v>1408592</v>
       </c>
     </row>
   </sheetData>
@@ -83029,10 +83029,10 @@
         <v>432</v>
       </c>
       <c r="E253" t="n">
-        <v>438.75</v>
+        <v>438.5</v>
       </c>
       <c r="F253" t="n">
-        <v>307890</v>
+        <v>310573</v>
       </c>
     </row>
   </sheetData>
@@ -87983,7 +87983,7 @@
         <v>226.6000061035156</v>
       </c>
       <c r="F246" t="n">
-        <v>631174</v>
+        <v>635793</v>
       </c>
     </row>
   </sheetData>
@@ -91891,10 +91891,10 @@
         <v>168.5</v>
       </c>
       <c r="E194" t="n">
-        <v>171.5</v>
+        <v>171</v>
       </c>
       <c r="F194" t="n">
-        <v>397737</v>
+        <v>401159</v>
       </c>
     </row>
   </sheetData>

--- a/stock_data_20240604.xlsx
+++ b/stock_data_20240604.xlsx
@@ -5520,10 +5520,10 @@
         <v>59.29999923706055</v>
       </c>
       <c r="E252" t="n">
-        <v>59.5</v>
+        <v>59.59999847412109</v>
       </c>
       <c r="F252" t="n">
-        <v>23696453</v>
+        <v>23841101</v>
       </c>
     </row>
   </sheetData>
@@ -9834,7 +9834,7 @@
         <v>13.22999954223633</v>
       </c>
       <c r="F214" t="n">
-        <v>3726635</v>
+        <v>3750130</v>
       </c>
     </row>
   </sheetData>
@@ -14902,10 +14902,10 @@
         <v>21</v>
       </c>
       <c r="E252" t="n">
-        <v>21.18000030517578</v>
+        <v>21.15999984741211</v>
       </c>
       <c r="F252" t="n">
-        <v>1495553</v>
+        <v>1501577</v>
       </c>
     </row>
   </sheetData>
@@ -19973,10 +19973,10 @@
         <v>14.6899995803833</v>
       </c>
       <c r="E252" t="n">
-        <v>14.71000003814697</v>
+        <v>14.72999954223633</v>
       </c>
       <c r="F252" t="n">
-        <v>24746216</v>
+        <v>24879486</v>
       </c>
     </row>
   </sheetData>
@@ -23987,7 +23987,7 @@
         <v>24.05999946594238</v>
       </c>
       <c r="F199" t="n">
-        <v>2732763</v>
+        <v>2748190</v>
       </c>
     </row>
   </sheetData>
@@ -29055,10 +29055,10 @@
         <v>14.22000026702881</v>
       </c>
       <c r="E252" t="n">
-        <v>14.88000011444092</v>
+        <v>14.82999992370605</v>
       </c>
       <c r="F252" t="n">
-        <v>3094822</v>
+        <v>3112906</v>
       </c>
     </row>
   </sheetData>
@@ -34129,7 +34129,7 @@
         <v>55.54999923706055</v>
       </c>
       <c r="F252" t="n">
-        <v>204264</v>
+        <v>205166</v>
       </c>
     </row>
   </sheetData>
@@ -39197,10 +39197,10 @@
         <v>97.34999847412109</v>
       </c>
       <c r="E252" t="n">
-        <v>98.40000152587891</v>
+        <v>99.05000305175781</v>
       </c>
       <c r="F252" t="n">
-        <v>21346724</v>
+        <v>21940691</v>
       </c>
     </row>
   </sheetData>
@@ -39279,16 +39279,16 @@
         <v>45083</v>
       </c>
       <c r="B3" t="n">
-        <v>122.8768460713101</v>
+        <v>122.876838113562</v>
       </c>
       <c r="C3" t="n">
-        <v>123.1750938809125</v>
+        <v>123.1750859038493</v>
       </c>
       <c r="D3" t="n">
-        <v>117.6078595848035</v>
+        <v>117.6078519682854</v>
       </c>
       <c r="E3" t="n">
-        <v>117.8066864013672</v>
+        <v>117.8066787719727</v>
       </c>
       <c r="F3" t="n">
         <v>1574867</v>
@@ -39339,16 +39339,16 @@
         <v>45086</v>
       </c>
       <c r="B6" t="n">
-        <v>116.2160444228166</v>
+        <v>116.2160367009445</v>
       </c>
       <c r="C6" t="n">
-        <v>118.5025830600165</v>
+        <v>118.5025751862173</v>
       </c>
       <c r="D6" t="n">
-        <v>114.3271594026904</v>
+        <v>114.3271518063236</v>
       </c>
       <c r="E6" t="n">
-        <v>114.8242340087891</v>
+        <v>114.8242263793945</v>
       </c>
       <c r="F6" t="n">
         <v>1248175</v>
@@ -39419,16 +39419,16 @@
         <v>45092</v>
       </c>
       <c r="B10" t="n">
-        <v>121.1867817841399</v>
+        <v>121.186789970964</v>
       </c>
       <c r="C10" t="n">
-        <v>121.2861951812717</v>
+        <v>121.2862033748117</v>
       </c>
       <c r="D10" t="n">
-        <v>112.1400261195372</v>
+        <v>112.1400336952039</v>
       </c>
       <c r="E10" t="n">
-        <v>112.9353408813477</v>
+        <v>112.9353485107422</v>
       </c>
       <c r="F10" t="n">
         <v>2950879</v>
@@ -39459,16 +39459,16 @@
         <v>45096</v>
       </c>
       <c r="B12" t="n">
-        <v>115.4163843842166</v>
+        <v>115.4163924825737</v>
       </c>
       <c r="C12" t="n">
-        <v>117.411481833283</v>
+        <v>117.411490071629</v>
       </c>
       <c r="D12" t="n">
-        <v>108.7328109741211</v>
+        <v>108.7328186035156</v>
       </c>
       <c r="E12" t="n">
-        <v>108.7328109741211</v>
+        <v>108.7328186035156</v>
       </c>
       <c r="F12" t="n">
         <v>1290420</v>
@@ -39619,16 +39619,16 @@
         <v>45111</v>
       </c>
       <c r="B20" t="n">
-        <v>122.1997271098143</v>
+        <v>122.19971926262</v>
       </c>
       <c r="C20" t="n">
-        <v>122.8980082204502</v>
+        <v>122.898000328415</v>
       </c>
       <c r="D20" t="n">
-        <v>118.2095319388816</v>
+        <v>118.2095243479222</v>
       </c>
       <c r="E20" t="n">
-        <v>118.8080596923828</v>
+        <v>118.8080520629883</v>
       </c>
       <c r="F20" t="n">
         <v>1681832</v>
@@ -39639,16 +39639,16 @@
         <v>45112</v>
       </c>
       <c r="B21" t="n">
-        <v>120.6036548996516</v>
+        <v>120.603647282857</v>
       </c>
       <c r="C21" t="n">
-        <v>124.593850214044</v>
+        <v>124.5938423452464</v>
       </c>
       <c r="D21" t="n">
-        <v>119.4065917389177</v>
+        <v>119.4065841977243</v>
       </c>
       <c r="E21" t="n">
-        <v>120.8031616210938</v>
+        <v>120.8031539916992</v>
       </c>
       <c r="F21" t="n">
         <v>2284390</v>
@@ -39719,16 +39719,16 @@
         <v>45118</v>
       </c>
       <c r="B25" t="n">
-        <v>144.2455513361136</v>
+        <v>144.245566521392</v>
       </c>
       <c r="C25" t="n">
-        <v>151.4278990925449</v>
+        <v>151.4279150339363</v>
       </c>
       <c r="D25" t="n">
-        <v>138.659272402564</v>
+        <v>138.6592869997535</v>
       </c>
       <c r="E25" t="n">
-        <v>144.9438323974609</v>
+        <v>144.94384765625</v>
       </c>
       <c r="F25" t="n">
         <v>5830916</v>
@@ -39739,16 +39739,16 @@
         <v>45119</v>
       </c>
       <c r="B26" t="n">
-        <v>144.8440650436348</v>
+        <v>144.8440810405743</v>
       </c>
       <c r="C26" t="n">
-        <v>144.9438260000179</v>
+        <v>144.9438420079753</v>
       </c>
       <c r="D26" t="n">
-        <v>138.1604919433594</v>
+        <v>138.1605072021484</v>
       </c>
       <c r="E26" t="n">
-        <v>138.1604919433594</v>
+        <v>138.1605072021484</v>
       </c>
       <c r="F26" t="n">
         <v>3020600</v>
@@ -39779,16 +39779,16 @@
         <v>45121</v>
       </c>
       <c r="B28" t="n">
-        <v>144.6445671236218</v>
+        <v>144.6445828264217</v>
       </c>
       <c r="C28" t="n">
-        <v>145.8416225658849</v>
+        <v>145.8416383986387</v>
       </c>
       <c r="D28" t="n">
-        <v>139.6568234297038</v>
+        <v>139.6568385910278</v>
       </c>
       <c r="E28" t="n">
-        <v>140.5546112060547</v>
+        <v>140.5546264648438</v>
       </c>
       <c r="F28" t="n">
         <v>2231904</v>
@@ -39819,16 +39819,16 @@
         <v>45125</v>
       </c>
       <c r="B30" t="n">
-        <v>144.4450535591936</v>
+        <v>144.4450698532393</v>
       </c>
       <c r="C30" t="n">
-        <v>146.2406442479931</v>
+        <v>146.2406607445894</v>
       </c>
       <c r="D30" t="n">
-        <v>130.778639531272</v>
+        <v>130.7786542836854</v>
       </c>
       <c r="E30" t="n">
-        <v>135.2676086425781</v>
+        <v>135.2676239013672</v>
       </c>
       <c r="F30" t="n">
         <v>1986997</v>
@@ -39859,16 +39859,16 @@
         <v>45127</v>
       </c>
       <c r="B32" t="n">
-        <v>153.6225046297399</v>
+        <v>153.622518958115</v>
       </c>
       <c r="C32" t="n">
-        <v>163.5979919433594</v>
+        <v>163.5980072021484</v>
       </c>
       <c r="D32" t="n">
-        <v>153.6225046297399</v>
+        <v>153.622518958115</v>
       </c>
       <c r="E32" t="n">
-        <v>163.5979919433594</v>
+        <v>163.5980072021484</v>
       </c>
       <c r="F32" t="n">
         <v>1180323</v>
@@ -39899,16 +39899,16 @@
         <v>45131</v>
       </c>
       <c r="B34" t="n">
-        <v>188.9357270278334</v>
+        <v>188.9357415944395</v>
       </c>
       <c r="C34" t="n">
-        <v>197.9136657714844</v>
+        <v>197.9136810302734</v>
       </c>
       <c r="D34" t="n">
-        <v>184.6462795829756</v>
+        <v>184.646293818873</v>
       </c>
       <c r="E34" t="n">
-        <v>197.9136657714844</v>
+        <v>197.9136810302734</v>
       </c>
       <c r="F34" t="n">
         <v>3297788</v>
@@ -39939,16 +39939,16 @@
         <v>45133</v>
       </c>
       <c r="B36" t="n">
-        <v>199.4099943783304</v>
+        <v>199.4099789262943</v>
       </c>
       <c r="C36" t="n">
-        <v>214.0739735732644</v>
+        <v>214.0739569849345</v>
       </c>
       <c r="D36" t="n">
-        <v>184.047749305354</v>
+        <v>184.0477350437195</v>
       </c>
       <c r="E36" t="n">
-        <v>196.9161224365234</v>
+        <v>196.9161071777344</v>
       </c>
       <c r="F36" t="n">
         <v>8409518</v>
@@ -39959,16 +39959,16 @@
         <v>45134</v>
       </c>
       <c r="B37" t="n">
-        <v>204.9962689415264</v>
+        <v>204.9962833850136</v>
       </c>
       <c r="C37" t="n">
-        <v>216.5678405761719</v>
+        <v>216.5678558349609</v>
       </c>
       <c r="D37" t="n">
-        <v>199.6095117586247</v>
+        <v>199.6095258225754</v>
       </c>
       <c r="E37" t="n">
-        <v>216.5678405761719</v>
+        <v>216.5678558349609</v>
       </c>
       <c r="F37" t="n">
         <v>6267832</v>
@@ -39979,16 +39979,16 @@
         <v>45135</v>
       </c>
       <c r="B38" t="n">
-        <v>229.4362133104562</v>
+        <v>229.4362280069447</v>
       </c>
       <c r="C38" t="n">
-        <v>238.2146453857422</v>
+        <v>238.2146606445312</v>
       </c>
       <c r="D38" t="n">
-        <v>226.9423414266469</v>
+        <v>226.9423559633909</v>
       </c>
       <c r="E38" t="n">
-        <v>238.2146453857422</v>
+        <v>238.2146606445312</v>
       </c>
       <c r="F38" t="n">
         <v>2200132</v>
@@ -40019,16 +40019,16 @@
         <v>45139</v>
       </c>
       <c r="B40" t="n">
-        <v>254.0756598910277</v>
+        <v>254.0756754865878</v>
       </c>
       <c r="C40" t="n">
-        <v>272.2310438330974</v>
+        <v>272.2310605430633</v>
       </c>
       <c r="D40" t="n">
-        <v>241.5065549563882</v>
+        <v>241.5065697804371</v>
       </c>
       <c r="E40" t="n">
-        <v>248.5891418457031</v>
+        <v>248.5891571044922</v>
       </c>
       <c r="F40" t="n">
         <v>5828139</v>
@@ -40039,16 +40039,16 @@
         <v>45140</v>
       </c>
       <c r="B41" t="n">
-        <v>248.5891438082947</v>
+        <v>248.5891590548475</v>
       </c>
       <c r="C41" t="n">
-        <v>257.8663501660908</v>
+        <v>257.8663659816364</v>
       </c>
       <c r="D41" t="n">
-        <v>238.0151362612014</v>
+        <v>238.0151508592256</v>
       </c>
       <c r="E41" t="n">
-        <v>248.7886505126953</v>
+        <v>248.7886657714844</v>
       </c>
       <c r="F41" t="n">
         <v>4255193</v>
@@ -40059,16 +40059,16 @@
         <v>45141</v>
       </c>
       <c r="B42" t="n">
-        <v>248.7886654032198</v>
+        <v>248.7886376559207</v>
       </c>
       <c r="C42" t="n">
-        <v>273.6276245117188</v>
+        <v>273.6275939941406</v>
       </c>
       <c r="D42" t="n">
-        <v>245.7960189939362</v>
+        <v>245.7959915804058</v>
       </c>
       <c r="E42" t="n">
-        <v>273.6276245117188</v>
+        <v>273.6275939941406</v>
       </c>
       <c r="F42" t="n">
         <v>4833528</v>
@@ -40239,16 +40239,16 @@
         <v>45154</v>
       </c>
       <c r="B51" t="n">
-        <v>323.205810546875</v>
+        <v>323.2057800292969</v>
       </c>
       <c r="C51" t="n">
-        <v>333.6800729257089</v>
+        <v>333.6800414191352</v>
       </c>
       <c r="D51" t="n">
-        <v>323.205810546875</v>
+        <v>323.2057800292969</v>
       </c>
       <c r="E51" t="n">
-        <v>323.205810546875</v>
+        <v>323.2057800292969</v>
       </c>
       <c r="F51" t="n">
         <v>1037078</v>
@@ -40479,16 +40479,16 @@
         <v>45173</v>
       </c>
       <c r="B63" t="n">
-        <v>365.4020890017541</v>
+        <v>365.4021186060664</v>
       </c>
       <c r="C63" t="n">
-        <v>396.5256216723939</v>
+        <v>396.5256537982867</v>
       </c>
       <c r="D63" t="n">
-        <v>354.2295614492262</v>
+        <v>354.2295901483576</v>
       </c>
       <c r="E63" t="n">
-        <v>376.6744079589844</v>
+        <v>376.6744384765625</v>
       </c>
       <c r="F63" t="n">
         <v>3727154</v>
@@ -40499,16 +40499,16 @@
         <v>45174</v>
       </c>
       <c r="B64" t="n">
-        <v>376.674412928372</v>
+        <v>376.6744406756343</v>
       </c>
       <c r="C64" t="n">
-        <v>414.281982421875</v>
+        <v>414.2820129394531</v>
       </c>
       <c r="D64" t="n">
-        <v>366.1003901223863</v>
+        <v>366.1004170907261</v>
       </c>
       <c r="E64" t="n">
-        <v>414.281982421875</v>
+        <v>414.2820129394531</v>
       </c>
       <c r="F64" t="n">
         <v>4978787</v>
@@ -40659,16 +40659,16 @@
         <v>45184</v>
       </c>
       <c r="B72" t="n">
-        <v>363.6065077237805</v>
+        <v>363.6065372295026</v>
       </c>
       <c r="C72" t="n">
-        <v>386.9491416372467</v>
+        <v>386.9491730371628</v>
       </c>
       <c r="D72" t="n">
-        <v>358.4192422128897</v>
+        <v>358.4192712976787</v>
       </c>
       <c r="E72" t="n">
-        <v>376.0758666992188</v>
+        <v>376.0758972167969</v>
       </c>
       <c r="F72" t="n">
         <v>2577682</v>
@@ -40679,16 +40679,16 @@
         <v>45187</v>
       </c>
       <c r="B73" t="n">
-        <v>380.6646152552559</v>
+        <v>380.664648442797</v>
       </c>
       <c r="C73" t="n">
-        <v>391.4381297526762</v>
+        <v>391.4381638794864</v>
       </c>
       <c r="D73" t="n">
-        <v>350.0398559570312</v>
+        <v>350.0398864746094</v>
       </c>
       <c r="E73" t="n">
-        <v>350.0398559570312</v>
+        <v>350.0398864746094</v>
       </c>
       <c r="F73" t="n">
         <v>1746749</v>
@@ -40759,16 +40759,16 @@
         <v>45191</v>
       </c>
       <c r="B77" t="n">
-        <v>385.5525790114809</v>
+        <v>385.552609070207</v>
       </c>
       <c r="C77" t="n">
-        <v>406.2018496246504</v>
+        <v>406.2018812932498</v>
       </c>
       <c r="D77" t="n">
-        <v>380.9638488260242</v>
+        <v>380.9638785270005</v>
       </c>
       <c r="E77" t="n">
-        <v>391.4381103515625</v>
+        <v>391.4381408691406</v>
       </c>
       <c r="F77" t="n">
         <v>2937732</v>
@@ -40819,16 +40819,16 @@
         <v>45196</v>
       </c>
       <c r="B80" t="n">
-        <v>386.0513860775313</v>
+        <v>386.0513550141375</v>
       </c>
       <c r="C80" t="n">
-        <v>396.9246619224265</v>
+        <v>396.924629984121</v>
       </c>
       <c r="D80" t="n">
-        <v>378.0709956676599</v>
+        <v>378.0709652464034</v>
       </c>
       <c r="E80" t="n">
-        <v>379.26806640625</v>
+        <v>379.2680358886719</v>
       </c>
       <c r="F80" t="n">
         <v>1306932</v>
@@ -40859,16 +40859,16 @@
         <v>45198</v>
       </c>
       <c r="B82" t="n">
-        <v>369.09306640625</v>
+        <v>369.0930362955729</v>
       </c>
       <c r="C82" t="n">
-        <v>380.9638913723826</v>
+        <v>380.9638602932816</v>
       </c>
       <c r="D82" t="n">
-        <v>364.2050832369924</v>
+        <v>364.2050535250778</v>
       </c>
       <c r="E82" t="n">
-        <v>374.080810546875</v>
+        <v>374.0807800292969</v>
       </c>
       <c r="F82" t="n">
         <v>1052313</v>
@@ -40899,16 +40899,16 @@
         <v>45202</v>
       </c>
       <c r="B84" t="n">
-        <v>370.0905801010433</v>
+        <v>370.0906105857542</v>
       </c>
       <c r="C84" t="n">
-        <v>378.5697443351642</v>
+        <v>378.569775518312</v>
       </c>
       <c r="D84" t="n">
-        <v>365.6016108006263</v>
+        <v>365.6016409155766</v>
       </c>
       <c r="E84" t="n">
-        <v>370.4895935058594</v>
+        <v>370.4896240234375</v>
       </c>
       <c r="F84" t="n">
         <v>1253583</v>
@@ -40939,16 +40939,16 @@
         <v>45204</v>
       </c>
       <c r="B86" t="n">
-        <v>361.3121624475421</v>
+        <v>361.3121922171827</v>
       </c>
       <c r="C86" t="n">
-        <v>378.0709689466989</v>
+        <v>378.07100009715</v>
       </c>
       <c r="D86" t="n">
-        <v>359.4167955049379</v>
+        <v>359.4168251184132</v>
       </c>
       <c r="E86" t="n">
-        <v>370.3898315429688</v>
+        <v>370.3898620605469</v>
       </c>
       <c r="F86" t="n">
         <v>1860343</v>
@@ -40959,16 +40959,16 @@
         <v>45205</v>
       </c>
       <c r="B87" t="n">
-        <v>370.0905659073175</v>
+        <v>370.0905970288729</v>
       </c>
       <c r="C87" t="n">
-        <v>370.0905659073175</v>
+        <v>370.0905970288729</v>
       </c>
       <c r="D87" t="n">
-        <v>362.8084726096994</v>
+        <v>362.8085031188911</v>
       </c>
       <c r="E87" t="n">
-        <v>362.908203125</v>
+        <v>362.9082336425781</v>
       </c>
       <c r="F87" t="n">
         <v>750472</v>
@@ -40999,16 +40999,16 @@
         <v>45209</v>
       </c>
       <c r="B89" t="n">
-        <v>417.6736632849725</v>
+        <v>417.6736950703215</v>
       </c>
       <c r="C89" t="n">
-        <v>437.8241292619151</v>
+        <v>437.8241625807331</v>
       </c>
       <c r="D89" t="n">
-        <v>400.515813039903</v>
+        <v>400.515843519524</v>
       </c>
       <c r="E89" t="n">
-        <v>401.0145874023438</v>
+        <v>401.0146179199219</v>
       </c>
       <c r="F89" t="n">
         <v>5464369</v>
@@ -41099,16 +41099,16 @@
         <v>45216</v>
       </c>
       <c r="B94" t="n">
-        <v>356.1248841749659</v>
+        <v>356.124914122123</v>
       </c>
       <c r="C94" t="n">
-        <v>374.0807606879894</v>
+        <v>374.0807921450872</v>
       </c>
       <c r="D94" t="n">
-        <v>346.0496362652153</v>
+        <v>346.0496653651275</v>
       </c>
       <c r="E94" t="n">
-        <v>362.908203125</v>
+        <v>362.9082336425781</v>
       </c>
       <c r="F94" t="n">
         <v>1425716</v>
@@ -41219,16 +41219,16 @@
         <v>45224</v>
       </c>
       <c r="B100" t="n">
-        <v>342.1592507790197</v>
+        <v>342.1592166272112</v>
       </c>
       <c r="C100" t="n">
-        <v>347.6457693775171</v>
+        <v>347.6457346780849</v>
       </c>
       <c r="D100" t="n">
-        <v>305.2499438436735</v>
+        <v>305.2499133758794</v>
       </c>
       <c r="E100" t="n">
-        <v>305.7487182617188</v>
+        <v>305.7486877441406</v>
       </c>
       <c r="F100" t="n">
         <v>1551295</v>
@@ -44268,10 +44268,10 @@
         <v>286.25</v>
       </c>
       <c r="E252" t="n">
-        <v>288.25</v>
+        <v>287.75</v>
       </c>
       <c r="F252" t="n">
-        <v>276893</v>
+        <v>278297</v>
       </c>
     </row>
   </sheetData>
@@ -49339,10 +49339,10 @@
         <v>60</v>
       </c>
       <c r="E252" t="n">
-        <v>60.59999847412109</v>
+        <v>60.79999923706055</v>
       </c>
       <c r="F252" t="n">
-        <v>5648394</v>
+        <v>5709071</v>
       </c>
     </row>
   </sheetData>
@@ -54410,10 +54410,10 @@
         <v>22.78000068664551</v>
       </c>
       <c r="E252" t="n">
-        <v>23.04000091552734</v>
+        <v>22.95999908447266</v>
       </c>
       <c r="F252" t="n">
-        <v>27494208</v>
+        <v>27770764</v>
       </c>
     </row>
   </sheetData>
@@ -57061,10 +57061,10 @@
         <v>17.1299991607666</v>
       </c>
       <c r="E131" t="n">
-        <v>17.25</v>
+        <v>17.29000091552734</v>
       </c>
       <c r="F131" t="n">
-        <v>51949527</v>
+        <v>53324567</v>
       </c>
     </row>
   </sheetData>
@@ -57149,16 +57149,16 @@
         <v>59.29999923706055</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>59.5</v>
+        <v>59.59999847412109</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23696453</v>
+        <v>23841101</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>-0.9000015258789062</v>
+        <v>-0.8000030517578125</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.490068713811695</v>
+        <v>1.324508330376522</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -57182,16 +57182,16 @@
         <v>17.1299991607666</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>17.25</v>
+        <v>17.29000091552734</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>51949527</v>
+        <v>53324567</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>-1.030000686645508</v>
+        <v>-0.9899997711181641</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.634576848774287</v>
+        <v>5.415753467894618</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -57215,16 +57215,16 @@
         <v>38.5</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39.70000076293945</v>
+        <v>39.68000030517578</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1322763</v>
+        <v>1331068</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>1.200000762939453</v>
+        <v>1.180000305175781</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-3.116885098544032</v>
+        <v>-3.064935857599432</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -57248,16 +57248,16 @@
         <v>72.15000152587891</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>72.75</v>
+        <v>72.80000305175781</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2285831</v>
+        <v>2293727</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>-0.1500015258789062</v>
+        <v>-0.09999847412109375</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.2057634056779278</v>
+        <v>0.1371721152647646</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
@@ -57281,16 +57281,16 @@
         <v>97.80000305175781</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>98.55000305175781</v>
+        <v>98.59999847412109</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12090211</v>
+        <v>12119044</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0500030517578125</v>
+        <v>0.09999847412109375</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.05076451955108041</v>
+        <v>-0.101521293523953</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -57314,16 +57314,16 @@
         <v>113.5999984741211</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>114.9000015258789</v>
+        <v>114.6999969482422</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>1408592</v>
+        <v>1419312</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>-1.5</v>
+        <v>-1.700004577636719</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>1.288659776921492</v>
+        <v>1.460485013188562</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -57347,16 +57347,16 @@
         <v>432</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>438.5</v>
+        <v>438.75</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>310573</v>
+        <v>311258</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>-3.25</v>
+        <v>-3</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>0.7357102433503115</v>
+        <v>0.6791171477079796</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -57380,16 +57380,16 @@
         <v>224.6999969482422</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>226.6000061035156</v>
+        <v>226.3000030517578</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>635793</v>
+        <v>636855</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>-1.699996948242188</v>
+        <v>-2</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>0.7446329064904944</v>
+        <v>0.8760402861433956</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -57413,16 +57413,16 @@
         <v>168.5</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>171</v>
+        <v>170.8000030517578</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>401159</v>
+        <v>403333</v>
       </c>
       <c r="G10" s="5" t="n">
-        <v>1</v>
+        <v>0.8000030517578125</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.5882352941176521</v>
+        <v>-0.470590030445772</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -57449,13 +57449,13 @@
         <v>13.22999954223633</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>3726635</v>
+        <v>3750130</v>
       </c>
       <c r="G11" s="4" t="n">
         <v>-0.2800006866455078</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>2.072543907489504</v>
+        <v>2.072543907489499</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -57479,16 +57479,16 @@
         <v>21</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21.18000030517578</v>
+        <v>21.15999984741211</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1495553</v>
+        <v>1501577</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2800006866455078</v>
+        <v>0.2600002288818359</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-1.339716228498176</v>
+        <v>-1.244020256590414</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -57512,16 +57512,16 @@
         <v>14.6899995803833</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>14.71000003814697</v>
+        <v>14.72999954223633</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>24746216</v>
+        <v>24879486</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>-0.1499996185302734</v>
+        <v>-0.130000114440918</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>1.009418721371716</v>
+        <v>0.8748325534617576</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -57548,13 +57548,13 @@
         <v>24.05999946594238</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2732763</v>
+        <v>2748190</v>
       </c>
       <c r="G14" s="5" t="n">
         <v>0.3400001525878906</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>-1.433390229469651</v>
+        <v>-1.433390229469647</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -57578,16 +57578,16 @@
         <v>14.22000026702881</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.88000011444092</v>
+        <v>14.82999992370605</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3094822</v>
+        <v>3112906</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5699996948242188</v>
+        <v>0.5199995040893555</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>-3.983226262123949</v>
+        <v>-3.633818929708207</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -57614,13 +57614,13 @@
         <v>55.54999923706055</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>204264</v>
+        <v>205166</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>1.849998474121094</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-3.445062286475519</v>
+        <v>-3.445062286475521</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -57644,16 +57644,16 @@
         <v>97.34999847412109</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>98.40000152587891</v>
+        <v>99.05000305175781</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>21346724</v>
+        <v>21940691</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>-2.199996948242188</v>
+        <v>-1.549995422363281</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>2.186875727247781</v>
+        <v>1.540750940231884</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -57677,16 +57677,16 @@
         <v>286.25</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>288.25</v>
+        <v>287.75</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>276893</v>
+        <v>278297</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>-0.1737619461337943</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -57710,16 +57710,16 @@
         <v>60</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>60.59999847412109</v>
+        <v>60.79999923706055</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5648394</v>
+        <v>5709071</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.5</v>
+        <v>0.7000007629394531</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>-0.8319467765299464</v>
+        <v>-1.164726756591968</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -57743,16 +57743,16 @@
         <v>22.78000068664551</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>23.04000091552734</v>
+        <v>22.95999908447266</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>27494208</v>
+        <v>27770764</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>-0.5999984741210938</v>
+        <v>-0.6800003051757812</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>2.538064676870604</v>
+        <v>2.87648190665158</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -62845,10 +62845,10 @@
         <v>38.5</v>
       </c>
       <c r="E253" t="n">
-        <v>39.70000076293945</v>
+        <v>39.68000030517578</v>
       </c>
       <c r="F253" t="n">
-        <v>1322763</v>
+        <v>1331068</v>
       </c>
     </row>
   </sheetData>
@@ -67916,10 +67916,10 @@
         <v>72.15000152587891</v>
       </c>
       <c r="E252" t="n">
-        <v>72.75</v>
+        <v>72.80000305175781</v>
       </c>
       <c r="F252" t="n">
-        <v>2285831</v>
+        <v>2293727</v>
       </c>
     </row>
   </sheetData>
@@ -72987,10 +72987,10 @@
         <v>97.80000305175781</v>
       </c>
       <c r="E252" t="n">
-        <v>98.55000305175781</v>
+        <v>98.59999847412109</v>
       </c>
       <c r="F252" t="n">
-        <v>12090211</v>
+        <v>12119044</v>
       </c>
     </row>
   </sheetData>
@@ -77938,10 +77938,10 @@
         <v>113.5999984741211</v>
       </c>
       <c r="E246" t="n">
-        <v>114.9000015258789</v>
+        <v>114.6999969482422</v>
       </c>
       <c r="F246" t="n">
-        <v>1408592</v>
+        <v>1419312</v>
       </c>
     </row>
   </sheetData>
@@ -83029,10 +83029,10 @@
         <v>432</v>
       </c>
       <c r="E253" t="n">
-        <v>438.5</v>
+        <v>438.75</v>
       </c>
       <c r="F253" t="n">
-        <v>310573</v>
+        <v>311258</v>
       </c>
     </row>
   </sheetData>
@@ -87980,10 +87980,10 @@
         <v>224.6999969482422</v>
       </c>
       <c r="E246" t="n">
-        <v>226.6000061035156</v>
+        <v>226.3000030517578</v>
       </c>
       <c r="F246" t="n">
-        <v>635793</v>
+        <v>636855</v>
       </c>
     </row>
   </sheetData>
@@ -91891,10 +91891,10 @@
         <v>168.5</v>
       </c>
       <c r="E194" t="n">
-        <v>171</v>
+        <v>170.8000030517578</v>
       </c>
       <c r="F194" t="n">
-        <v>401159</v>
+        <v>403333</v>
       </c>
     </row>
   </sheetData>

--- a/stock_data_20240604.xlsx
+++ b/stock_data_20240604.xlsx
@@ -5520,10 +5520,10 @@
         <v>59.29999923706055</v>
       </c>
       <c r="E252" t="n">
-        <v>59.59999847412109</v>
+        <v>59.54999923706055</v>
       </c>
       <c r="F252" t="n">
-        <v>23841101</v>
+        <v>23969882</v>
       </c>
     </row>
   </sheetData>
@@ -9828,13 +9828,13 @@
         <v>13.60999965667725</v>
       </c>
       <c r="D214" t="n">
-        <v>13.15999984741211</v>
+        <v>13.14000034332275</v>
       </c>
       <c r="E214" t="n">
-        <v>13.22999954223633</v>
+        <v>13.14000034332275</v>
       </c>
       <c r="F214" t="n">
-        <v>3750130</v>
+        <v>3847676</v>
       </c>
     </row>
   </sheetData>
@@ -14902,10 +14902,10 @@
         <v>21</v>
       </c>
       <c r="E252" t="n">
-        <v>21.15999984741211</v>
+        <v>21.20000076293945</v>
       </c>
       <c r="F252" t="n">
-        <v>1501577</v>
+        <v>1510696</v>
       </c>
     </row>
   </sheetData>
@@ -19973,10 +19973,10 @@
         <v>14.6899995803833</v>
       </c>
       <c r="E252" t="n">
-        <v>14.72999954223633</v>
+        <v>14.73999977111816</v>
       </c>
       <c r="F252" t="n">
-        <v>24879486</v>
+        <v>24912220</v>
       </c>
     </row>
   </sheetData>
@@ -23984,10 +23984,10 @@
         <v>23.71999931335449</v>
       </c>
       <c r="E199" t="n">
-        <v>24.05999946594238</v>
+        <v>24.02000045776367</v>
       </c>
       <c r="F199" t="n">
-        <v>2748190</v>
+        <v>2763097</v>
       </c>
     </row>
   </sheetData>
@@ -29055,10 +29055,10 @@
         <v>14.22000026702881</v>
       </c>
       <c r="E252" t="n">
-        <v>14.82999992370605</v>
+        <v>14.89000034332275</v>
       </c>
       <c r="F252" t="n">
-        <v>3112906</v>
+        <v>3112937</v>
       </c>
     </row>
   </sheetData>
@@ -34129,7 +34129,7 @@
         <v>55.54999923706055</v>
       </c>
       <c r="F252" t="n">
-        <v>205166</v>
+        <v>205359</v>
       </c>
     </row>
   </sheetData>
@@ -39197,10 +39197,10 @@
         <v>97.34999847412109</v>
       </c>
       <c r="E252" t="n">
-        <v>99.05000305175781</v>
+        <v>99.09999847412109</v>
       </c>
       <c r="F252" t="n">
-        <v>21940691</v>
+        <v>22147658</v>
       </c>
     </row>
   </sheetData>
@@ -44268,10 +44268,10 @@
         <v>286.25</v>
       </c>
       <c r="E252" t="n">
-        <v>287.75</v>
+        <v>288.25</v>
       </c>
       <c r="F252" t="n">
-        <v>278297</v>
+        <v>279336</v>
       </c>
     </row>
   </sheetData>
@@ -49342,7 +49342,7 @@
         <v>60.79999923706055</v>
       </c>
       <c r="F252" t="n">
-        <v>5709071</v>
+        <v>5717999</v>
       </c>
     </row>
   </sheetData>
@@ -54410,10 +54410,10 @@
         <v>22.78000068664551</v>
       </c>
       <c r="E252" t="n">
-        <v>22.95999908447266</v>
+        <v>23.05999946594238</v>
       </c>
       <c r="F252" t="n">
-        <v>27770764</v>
+        <v>27844249</v>
       </c>
     </row>
   </sheetData>
@@ -57061,10 +57061,10 @@
         <v>17.1299991607666</v>
       </c>
       <c r="E131" t="n">
-        <v>17.29000091552734</v>
+        <v>17.29999923706055</v>
       </c>
       <c r="F131" t="n">
-        <v>53324567</v>
+        <v>53569290</v>
       </c>
     </row>
   </sheetData>
@@ -57149,16 +57149,16 @@
         <v>59.29999923706055</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>59.59999847412109</v>
+        <v>59.54999923706055</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>23841101</v>
+        <v>23969882</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>-0.8000030517578125</v>
+        <v>-0.8500022888183594</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.324508330376522</v>
+        <v>-1.407288522094107</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
@@ -57182,16 +57182,16 @@
         <v>17.1299991607666</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>17.29000091552734</v>
+        <v>17.29999923706055</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>53324567</v>
+        <v>53569290</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>-0.9899997711181641</v>
+        <v>-0.9800014495849609</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.415753467894618</v>
+        <v>-5.361058056747793</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
@@ -57215,16 +57215,16 @@
         <v>38.5</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>39.68000030517578</v>
+        <v>39.70000076293945</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>1331068</v>
+        <v>1332192</v>
       </c>
       <c r="G4" s="5" t="n">
-        <v>1.180000305175781</v>
+        <v>1.200000762939453</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-3.064935857599432</v>
+        <v>3.116885098544034</v>
       </c>
       <c r="I4" t="inlineStr">
         <is>
@@ -57233,35 +57233,35 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>ALFAS.IS</t>
         </is>
       </c>
-      <c r="B5" s="4" t="n">
+      <c r="B5" s="5" t="n">
         <v>72.90000152587891</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="5" t="n">
         <v>73.5</v>
       </c>
-      <c r="D5" s="4" t="n">
+      <c r="D5" s="5" t="n">
         <v>72.15000152587891</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>72.80000305175781</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>2293727</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>-0.09999847412109375</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>0.1371721152647646</v>
+      <c r="E5" s="5" t="n">
+        <v>72.94999694824219</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>2318888</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>0.04999542236328125</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.06858082485160619</v>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>FF0000</t>
+          <t>00FF00</t>
         </is>
       </c>
     </row>
@@ -57281,16 +57281,16 @@
         <v>97.80000305175781</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>98.59999847412109</v>
+        <v>98.55000305175781</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>12119044</v>
+        <v>12157778</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.09999847412109375</v>
+        <v>0.0500030517578125</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-0.101521293523953</v>
+        <v>0.05076451955107868</v>
       </c>
       <c r="I6" t="inlineStr">
         <is>
@@ -57317,13 +57317,13 @@
         <v>114.6999969482422</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>1419312</v>
+        <v>1426559</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>-1.700004577636719</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>1.460485013188562</v>
+        <v>-1.460485013188562</v>
       </c>
       <c r="I7" t="inlineStr">
         <is>
@@ -57347,16 +57347,16 @@
         <v>432</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>438.75</v>
+        <v>438.5</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>311258</v>
+        <v>311306</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>-3</v>
+        <v>-3.25</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>0.6791171477079796</v>
+        <v>-0.7357102433503113</v>
       </c>
       <c r="I8" t="inlineStr">
         <is>
@@ -57380,16 +57380,16 @@
         <v>224.6999969482422</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>226.3000030517578</v>
+        <v>226.5</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>636855</v>
+        <v>637753</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>-2</v>
+        <v>-1.800003051757812</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>0.8760402861433956</v>
+        <v>-0.7884375942604497</v>
       </c>
       <c r="I9" t="inlineStr">
         <is>
@@ -57416,13 +57416,13 @@
         <v>170.8000030517578</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>403333</v>
+        <v>404696</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.8000030517578125</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-0.470590030445772</v>
+        <v>0.470590030445772</v>
       </c>
       <c r="I10" t="inlineStr">
         <is>
@@ -57443,19 +57443,19 @@
         <v>13.60999965667725</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>13.15999984741211</v>
+        <v>13.14000034332275</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>13.22999954223633</v>
+        <v>13.14000034332275</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>3750130</v>
+        <v>3847676</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>-0.2800006866455078</v>
+        <v>-0.369999885559082</v>
       </c>
       <c r="H11" s="4" t="n">
-        <v>2.072543907489499</v>
+        <v>-2.738711171655586</v>
       </c>
       <c r="I11" t="inlineStr">
         <is>
@@ -57479,16 +57479,16 @@
         <v>21</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>21.15999984741211</v>
+        <v>21.20000076293945</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1501577</v>
+        <v>1510696</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2600002288818359</v>
+        <v>0.3000011444091797</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>-1.244020256590414</v>
+        <v>1.435412200405946</v>
       </c>
       <c r="I12" t="inlineStr">
         <is>
@@ -57512,16 +57512,16 @@
         <v>14.6899995803833</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>14.72999954223633</v>
+        <v>14.73999977111816</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>24879486</v>
+        <v>24912220</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>-0.130000114440918</v>
+        <v>-0.119999885559082</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>0.8748325534617576</v>
+        <v>-0.8075362606429189</v>
       </c>
       <c r="I13" t="inlineStr">
         <is>
@@ -57545,16 +57545,16 @@
         <v>23.71999931335449</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>24.05999946594238</v>
+        <v>24.02000045776367</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2748190</v>
+        <v>2763097</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3400001525878906</v>
+        <v>0.3000011444091797</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>-1.433390229469647</v>
+        <v>1.264760341878582</v>
       </c>
       <c r="I14" t="inlineStr">
         <is>
@@ -57578,16 +57578,16 @@
         <v>14.22000026702881</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>14.82999992370605</v>
+        <v>14.89000034332275</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3112906</v>
+        <v>3112937</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.5199995040893555</v>
+        <v>0.5799999237060547</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>-3.633818929708207</v>
+        <v>4.053109061485201</v>
       </c>
       <c r="I15" t="inlineStr">
         <is>
@@ -57614,13 +57614,13 @@
         <v>55.54999923706055</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>205166</v>
+        <v>205359</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>1.849998474121094</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>-3.445062286475521</v>
+        <v>3.445062286475521</v>
       </c>
       <c r="I16" t="inlineStr">
         <is>
@@ -57644,16 +57644,16 @@
         <v>97.34999847412109</v>
       </c>
       <c r="E17" s="4" t="n">
-        <v>99.05000305175781</v>
+        <v>99.09999847412109</v>
       </c>
       <c r="F17" s="4" t="n">
-        <v>21940691</v>
+        <v>22147658</v>
       </c>
       <c r="G17" s="4" t="n">
-        <v>-1.549995422363281</v>
+        <v>-1.5</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>1.540750940231884</v>
+        <v>-1.491053700548383</v>
       </c>
       <c r="I17" t="inlineStr">
         <is>
@@ -57677,16 +57677,16 @@
         <v>286.25</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>287.75</v>
+        <v>288.25</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>278297</v>
+        <v>279336</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0</v>
+        <v>0.1737619461337967</v>
       </c>
       <c r="I18" t="inlineStr">
         <is>
@@ -57713,13 +57713,13 @@
         <v>60.79999923706055</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5709071</v>
+        <v>5717999</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>0.7000007629394531</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>-1.164726756591968</v>
+        <v>1.164726756591968</v>
       </c>
       <c r="I19" t="inlineStr">
         <is>
@@ -57743,16 +57743,16 @@
         <v>22.78000068664551</v>
       </c>
       <c r="E20" s="4" t="n">
-        <v>22.95999908447266</v>
+        <v>23.05999946594238</v>
       </c>
       <c r="F20" s="4" t="n">
-        <v>27770764</v>
+        <v>27844249</v>
       </c>
       <c r="G20" s="4" t="n">
-        <v>-0.6800003051757812</v>
+        <v>-0.5799999237060547</v>
       </c>
       <c r="H20" s="4" t="n">
-        <v>2.87648190665158</v>
+        <v>-2.4534684377362</v>
       </c>
       <c r="I20" t="inlineStr">
         <is>
@@ -62845,10 +62845,10 @@
         <v>38.5</v>
       </c>
       <c r="E253" t="n">
-        <v>39.68000030517578</v>
+        <v>39.70000076293945</v>
       </c>
       <c r="F253" t="n">
-        <v>1331068</v>
+        <v>1332192</v>
       </c>
     </row>
   </sheetData>
@@ -67916,10 +67916,10 @@
         <v>72.15000152587891</v>
       </c>
       <c r="E252" t="n">
-        <v>72.80000305175781</v>
+        <v>72.94999694824219</v>
       </c>
       <c r="F252" t="n">
-        <v>2293727</v>
+        <v>2318888</v>
       </c>
     </row>
   </sheetData>
@@ -72987,10 +72987,10 @@
         <v>97.80000305175781</v>
       </c>
       <c r="E252" t="n">
-        <v>98.59999847412109</v>
+        <v>98.55000305175781</v>
       </c>
       <c r="F252" t="n">
-        <v>12119044</v>
+        <v>12157778</v>
       </c>
     </row>
   </sheetData>
@@ -77941,7 +77941,7 @@
         <v>114.6999969482422</v>
       </c>
       <c r="F246" t="n">
-        <v>1419312</v>
+        <v>1426559</v>
       </c>
     </row>
   </sheetData>
@@ -83029,10 +83029,10 @@
         <v>432</v>
       </c>
       <c r="E253" t="n">
-        <v>438.75</v>
+        <v>438.5</v>
       </c>
       <c r="F253" t="n">
-        <v>311258</v>
+        <v>311306</v>
       </c>
     </row>
   </sheetData>
@@ -87980,10 +87980,10 @@
         <v>224.6999969482422</v>
       </c>
       <c r="E246" t="n">
-        <v>226.3000030517578</v>
+        <v>226.5</v>
       </c>
       <c r="F246" t="n">
-        <v>636855</v>
+        <v>637753</v>
       </c>
     </row>
   </sheetData>
@@ -91894,7 +91894,7 @@
         <v>170.8000030517578</v>
       </c>
       <c r="F194" t="n">
-        <v>403333</v>
+        <v>404696</v>
       </c>
     </row>
   </sheetData>
